--- a/実行時フォルダ/System/resources.xlsx
+++ b/実行時フォルダ/System/resources.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">strTitleConfiguration</t>
   </si>
   <si>
-    <t xml:space="preserve">CONFGURAGION</t>
+    <t xml:space="preserve">CONFIGURATION</t>
   </si>
   <si>
     <t xml:space="preserve">strTitleExit</t>
@@ -3317,6 +3317,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To accept lighter hit, specify lower value.</t>
     </r>
@@ -3347,6 +3348,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To accept lighter hit, specify lower value.</t>
     </r>
@@ -3377,6 +3379,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To accept lighter hit, specify lower value.</t>
     </r>
@@ -3407,6 +3410,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To accept lighter hit, specify lower value.</t>
     </r>
@@ -3437,6 +3441,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To accept lighter hit, specify lower value.</t>
     </r>
@@ -3467,6 +3472,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To accept lighter hit, specify lower value.</t>
     </r>
@@ -3497,6 +3503,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To accept lighter hit, specify lower value.</t>
     </r>
@@ -3527,6 +3534,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To accept lighter hit, specify lower value.</t>
     </r>
@@ -3719,7 +3727,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3783,17 +3791,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="MS Gothic"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3837,7 +3834,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3875,10 +3872,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3961,20 +3954,21 @@
   </sheetPr>
   <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A250" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C257" activeCellId="0" sqref="C257"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.7897727272727"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5113636363636"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.7556818181818"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7329545454545"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8977272727273"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="134.397727272727"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.0625"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="245.193181818182"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3693181818182"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.073863636364"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.4943181818182"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8522727272727"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="148.073863636364"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="80.4261363636364"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="269.994318181818"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6711,7 +6705,7 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="10" t="s">
+      <c r="A260" s="7" t="s">
         <v>700</v>
       </c>
       <c r="B260" s="0" t="s">
@@ -6789,8 +6783,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="269.090909090909"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.4772727272727"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="296.454545454545"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.6818181818182"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/実行時フォルダ/System/resources.xlsx
+++ b/実行時フォルダ/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="844">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -287,16 +287,16 @@
   </si>
   <si>
     <t xml:space="preserve">DrOnly: Only Drums is available.\n
-GROnly: Only Guitar/Bass are available. You can play them in GR screen.\n
+GBOnly: Only Guitar/Bass are available. You can play them in GR screen.\n
 Both: Both Drums and Guitar/Bass are available.</t>
   </si>
   <si>
-    <t xml:space="preserve">DrOnly,GROnly,Both</t>
+    <t xml:space="preserve">DrOnly,GBOnly,Both</t>
   </si>
   <si>
     <t xml:space="preserve">使用楽器の選択：\n
 DrOnly: ドラムのみ有効にします。\n
-GROnly: ギター/ベースのみの専用画面を用います。\n
+GBOnly: ギター/ベースのみの専用画面を用います。\n
 Both: ドラムとギター/ベースの両方を有効にします。\n</t>
   </si>
   <si>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">JudgePriority</t>
   </si>
   <si>
-    <t xml:space="preserve">The display prioity between chips and judge mark/combo.\n
+    <t xml:space="preserve">The display priority between chips and judge mark/combo.\n
 \n
  Under: Show them under the chips.\n
  Over:  Show them over the chips.</t>
@@ -1531,7 +1531,7 @@
     <t xml:space="preserve">HH-0: LC|HC|HO;\n
  all are separated.\n
 HH-1: LC&amp;(HC|HO);\n
- HC and HO are separted.\n
+ HC and HO are separated.\n
  LC is grouped with HC and HHO.\n
 HH-2: LC|(HC&amp;HO);\n
  LC and HHs are separated.\n
@@ -2307,6 +2307,81 @@
     <t xml:space="preserve">DisplayCombo</t>
   </si>
   <si>
+    <t xml:space="preserve">The display position for Drums Combo.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OFF</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">演奏時のドラムコンボ文字列の位置を指定します。</t>
   </si>
   <si>
@@ -2316,85 +2391,13 @@
     <t xml:space="preserve">ComboPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">The display position for Drums Combo.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Center</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Right</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">OFF</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">strCfgDgbDisplayJudge</t>
   </si>
   <si>
     <t xml:space="preserve">DisplayJudge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display judge strings.</t>
   </si>
   <si>
     <t xml:space="preserve">判定文字列を表示します。</t>
@@ -2628,6 +2631,16 @@
     <t xml:space="preserve">AutoGhost</t>
   </si>
   <si>
+    <t xml:space="preserve">AutoGhost settings:\n
+  Perfect: All auto play.\n
+  HiSkill: Hi-skill ghost.\n
+  HiScore: Hi-score ghost.\n
+  LastPlay: Last-played ghost.\n
+  Online: Online ghost.\n
+\n
+* You need DTXMania Online Stats plugin, to use the feature.</t>
+  </si>
+  <si>
     <t xml:space="preserve">自動ゴーストを設定します。\n
   Perfect: 全自動演奏です。\n
   HiSkill: 最高スキルのゴーストです。\n
@@ -2635,7 +2648,7 @@
   LastPlay: 最後にプレーした時のゴーストです。\n
   Online: オンラインゴーストです。\n
 \n
-DTXMania Online Stats のプラグインが必要です。</t>
+※ DTXMania Online Stats のプラグインが必要です。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDgbTargetGhost</t>
@@ -2680,7 +2693,11 @@
     <t xml:space="preserve">LeftCymbal</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for Left Cymbal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 左シンバルへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2690,7 +2707,11 @@
     <t xml:space="preserve">HiHat(Close)</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for Hi-hat (Close).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 ハイハット(クローズ)へのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2700,7 +2721,11 @@
     <t xml:space="preserve">HiHat(Open)</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for Hi-hat (Open).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 ハイハット(オープン)へのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2710,7 +2735,11 @@
     <t xml:space="preserve">Snare</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for Snare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 スネアへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2720,7 +2749,11 @@
     <t xml:space="preserve">Kick</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for Kick.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 バスドラムへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2730,7 +2763,11 @@
     <t xml:space="preserve">HighTom</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for High-Tom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 ハイタムへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2740,7 +2777,11 @@
     <t xml:space="preserve">LowTom</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for Low-Tom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 ロータムへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2750,7 +2791,11 @@
     <t xml:space="preserve">FloorTom</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for Floor-Tom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 フロアタムへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2760,7 +2805,11 @@
     <t xml:space="preserve">RightCymbal</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for Right Cymbal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 右シンバルへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2770,7 +2819,11 @@
     <t xml:space="preserve">RideCymbal</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for Ride Cymbal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 ライドシンバルへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2780,7 +2833,11 @@
     <t xml:space="preserve">HiHatPedal</t>
   </si>
   <si>
-    <t xml:space="preserve">ドラムのキー設定:\n
+    <t xml:space="preserve">Drums key / button / pad:\n
+To assign keys for H-hat (Pedal).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのキー/ボタン/パッド設定:\n
 ハイハットへのフットペダルへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2790,7 +2847,11 @@
     <t xml:space="preserve">R</t>
   </si>
   <si>
-    <t xml:space="preserve">ギターのキー設定:\n
+    <t xml:space="preserve">Guitar key / button :\n
+To assign keys for R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのキー/ボタン設定:\n
 Rボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2800,7 +2861,11 @@
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">ギターのキー設定:\n
+    <t xml:space="preserve">Guitar key / button :\n
+To assign keys for G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのキー/ボタン設定:\n
 Gボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2810,7 +2875,11 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">ギターのキー設定:\n
+    <t xml:space="preserve">Guitar key / button :\n
+To assign keys for B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのキー/ボタン設定:\n
 Bボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2820,7 +2889,11 @@
     <t xml:space="preserve">Pick</t>
   </si>
   <si>
-    <t xml:space="preserve">ギターのキー設定:\n
+    <t xml:space="preserve">Guitar key / button :\n
+To assign keys for Pick.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのキー/ボタン設定:\n
 ピックボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2830,7 +2903,11 @@
     <t xml:space="preserve">Wailing</t>
   </si>
   <si>
-    <t xml:space="preserve">ギターのキー設定:\n
+    <t xml:space="preserve">Guitar key / button :\n
+To assign keys for Wailing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのキー/ボタン設定:\n
 Wailingボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2840,7 +2917,11 @@
     <t xml:space="preserve">Decide</t>
   </si>
   <si>
-    <t xml:space="preserve">ギターのキー設定:\n
+    <t xml:space="preserve">Guitar key / button :\n
+To assign keys for Decide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのキー/ボタン設定:\n
 決定ボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2850,56 +2931,88 @@
     <t xml:space="preserve">Cancel</t>
   </si>
   <si>
-    <t xml:space="preserve">ギターのキー設定:\n
+    <t xml:space="preserve">Guitar key / button :\n
+To assign keys for Cancel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのキー/ボタン設定:\n
 キャンセルボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgKeyAssignBsR</t>
   </si>
   <si>
-    <t xml:space="preserve">ベースのキー設定:\n
+    <t xml:space="preserve">Bass key / button :\n
+To assign keys for R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのキー/ボタン設定:\n
 Rボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgKeyAssignBsG</t>
   </si>
   <si>
-    <t xml:space="preserve">ベースのキー設定:\n
+    <t xml:space="preserve">Bass key / button :\n
+To assign keys for G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのキー/ボタン設定:\n
 Gボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgKeyAssignBsB</t>
   </si>
   <si>
-    <t xml:space="preserve">ベースのキー設定:\n
+    <t xml:space="preserve">Bass key / button :\n
+To assign keys for B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのキー/ボタン設定:\n
 Bボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgKeyAssignBsPick</t>
   </si>
   <si>
-    <t xml:space="preserve">ベースのキー設定:\n
+    <t xml:space="preserve">Bass key / button :\n
+To assign keys for Pick.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのキー/ボタン設定:\n
 ピックボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgKeyAssignBsWailing</t>
   </si>
   <si>
-    <t xml:space="preserve">ベースのキー設定:\n
+    <t xml:space="preserve">Bass key / button :\n
+To assign keys for Wailing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのキー/ボタン設定:\n
 Wailingボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgKeyAssignBsDecide</t>
   </si>
   <si>
-    <t xml:space="preserve">ベースのキー設定:\n
+    <t xml:space="preserve">Bass key / button :\n
+To assign keys for Decide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのキー/ボタン設定:\n
 決定ボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgKeyAssignBsCancel</t>
   </si>
   <si>
-    <t xml:space="preserve">ベースのキー設定:\n
+    <t xml:space="preserve">Bass key / button :\n
+To assign keys for Cancel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのキー/ボタン設定:\n
 キャンセルボタンへのキーの割り当てを設定します。</t>
   </si>
   <si>
@@ -2914,80 +3027,66 @@
 (You can assign keyboard only. You can't use pads to capture screenshot.)</t>
   </si>
   <si>
-    <t xml:space="preserve">キャプチャキー設定：\n
+    <t xml:space="preserve">キャプチャキード設定：\n
 画面キャプチャのキーの割り当てを設定します。</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgSysMenuItem</t>
+    <t xml:space="preserve">strCfgSysMenuDesc</t>
   </si>
   <si>
     <t xml:space="preserve">System</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgDrMenuItem</t>
+    <t xml:space="preserve">Settings for an overall systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">システムに関係する項目を設定します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDrMenuDesc</t>
   </si>
   <si>
     <t xml:space="preserve">Drums</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgGtMenuItem</t>
+    <t xml:space="preserve">Settings to play the drums.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムの演奏に関する項目を設定します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgGtMenuDesc</t>
   </si>
   <si>
     <t xml:space="preserve">Guitar</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgBsMenuItem</t>
+    <t xml:space="preserve">Settings to play the guitar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターの演奏に関する項目を設定します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgBsMenuDesc</t>
   </si>
   <si>
     <t xml:space="preserve">Bass</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgExitMenuItem</t>
+    <t xml:space="preserve">Settings to play the bass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースの演奏に関する項目を設定します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgExitMenuDesc</t>
   </si>
   <si>
     <t xml:space="preserve">Exit</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgSysMenuDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settings for an overall systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システムに関係する項目を設定します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDrMenuDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settings to play the drums.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドラムの演奏に関する項目を設定します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgGtMenuDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settings to play the guitar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ギターの演奏に関する項目を設定します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgBsMenuDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settings to play the bass.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベースの演奏に関する項目を設定します。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgExitMenuDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save the settings and exit from\nCONFIGURATION menu.</t>
+    <t xml:space="preserve">Save the settings and exit from\n
+CONFIGURATION menu.</t>
   </si>
   <si>
     <t xml:space="preserve">設定を保存し、コンフィグ画面を終了します。</t>
@@ -2996,12 +3095,18 @@
     <t xml:space="preserve">strCfgDgbHiddenFrom</t>
   </si>
   <si>
+    <t xml:space="preserve">Chips’ disappear Y coordinate for Hidden mode</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hiddenモードでチップが見えなくなる位置です。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDgbSuddenFrom</t>
   </si>
   <si>
+    <t xml:space="preserve">Chips’ appear Y coordinate for Sudden mode</t>
+  </si>
+  <si>
     <t xml:space="preserve">Suddenモードでチップが表示される位置です。</t>
   </si>
   <si>
@@ -3011,22 +3116,46 @@
     <t xml:space="preserve">BassX(Both)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of bass lane (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースレーンを表示するX座標。(Bothモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispBassXGB</t>
   </si>
   <si>
     <t xml:space="preserve">BassX(GB)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of bass lane (for GBOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースレーンを表示するX座標。(GBOnlyモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispBsComboXBoth</t>
   </si>
   <si>
     <t xml:space="preserve">ComboX(Both)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of bass Combo (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのコンボ表示をするX座標。(Bothモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispBsComboXGB</t>
   </si>
   <si>
-    <t xml:space="preserve">CombpX(Dr)</t>
+    <t xml:space="preserve">CombpX(GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X coordinate of bass Combo (for GBOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのコンボ表示をするX座標。(GBOnlyモード時)</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDispBsComboYBoth</t>
@@ -3035,112 +3164,274 @@
     <t xml:space="preserve">CombpY(Both)</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of bass Combo (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのコンボ表示をするY座標。(Bothモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispBsComboYGB</t>
   </si>
   <si>
+    <t xml:space="preserve">ComboY(GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y coordinate of bass Combo (for GBOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースのコンボ表示をするY座標。(GBOnlyモード時)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispBsJudge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JudgeStrings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y coordinate of bass JudgeStrings (Perfect, etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースの判定文字(Perfectなど)を表示するY座標。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispBsJudgeLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JudgeLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y coordinate of bass Judge Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベースの判定ラインのY座標。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispDebugXBoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebugX(Both)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X coordinate of debug info (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デバッグ表示情報を表示するX座標。(Bothモード時)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispDebugXDr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebugX(Dr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X coordinate of debug info (for DrOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デバッグ表示情報を表示するX座標。(DrOnlyモード時)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispDebugXGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebugX(GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X coordinate of debug info (for GBOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デバッグ表示情報を表示するX座標。(GBOnlyモード時)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispDebugYBoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebugY(Both)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y coordinate of debug info (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デバッグ表示情報を表示するY座標。(Bothモード時)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispDebugYDr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebugY(Dr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y coordinate of debug info (for DrOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デバッグ表示情報を表示するY座標。(DrOnlyモード時)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispDebugYGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DebugY(GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y coordinate of debug info (for GBOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デバッグ表示情報を表示するY座標。(GBOnlyモード時)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispDrComboXBoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X coordinate of drums Combo (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのコンボ表示をするX座標。(Bothモード時)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispDrComboXDr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComboX(Dr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X coordinate of drums Combo (for DrOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのコンボ表示をするX座標。(DrOnlyモード時)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispDrComboYBoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComboY(Both)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y coordinate of drums Combo (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのコンボ表示をするY座標。(Bothモード時)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDispDrComboYDr</t>
+  </si>
+  <si>
     <t xml:space="preserve">ComboY(Dr)</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgDispBsJudge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispBsJudgeLine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JudgeLine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispDebugXBoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DebugX(Both)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispDebugXDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DebugX(Dr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispDebugXGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DebugX(GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispDebugYBoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DebugY(Both)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispDebugYDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DebugY(Dr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispDebugYGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DebugY(GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispDrComboXBoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispDrComboXDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispDrComboYBoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispDrComboYDr</t>
+    <t xml:space="preserve">Y coordinate of drums Combo (for DrOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムのコンボ表示をするY座標。(DrOnlyモード時)</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDispDrJudge</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of drums JudgeStrings (Perfect, etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムの判定文字(Perfectなど)を表示するY座標。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispDrJudgeLine</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of drums Judge Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムの判定ラインのY座標。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispDrumsXBoth</t>
   </si>
   <si>
     <t xml:space="preserve">DrumsX(Both)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of drums lane (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムレーンを表示するX座標。(Bothモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispDrumsXDr</t>
   </si>
   <si>
     <t xml:space="preserve">DrumsX(Dr)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of drums lane(for DrOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムレーンを表示するX座標。(DrOnlyモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispGtComboXBoth</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of guitar Combo (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのコンボ表示をするX座標。(Bothモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispGtComboXGB</t>
   </si>
   <si>
+    <t xml:space="preserve">ComboX(GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X coordinate of guitar Combo (for GBOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのコンボ表示をするX座標。(GBOnlyモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispGtComboYBoth</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of guitar Combo (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのコンボ表示をするY座標。(Bothモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispGtComboYGB</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of guitar Combo (for GBOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターのコンボ表示をするY座標。(GBOnlyモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispGtJudge</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of guitar JudgeStrings (Perfect, etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターの判定文字(Perfectなど)を表示するY座標。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispGtJudgeLine</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of guitar Judge Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターの判定ラインのY座標。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispGuitarXBoth</t>
   </si>
   <si>
-    <t xml:space="preserve">GuitarX(BotH)</t>
+    <t xml:space="preserve">GuitarX(Both)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X coordinate of guitar lane (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターレーンを表示するX座標。(Bothモード時)</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDispGuitarXGB</t>
@@ -3149,48 +3440,96 @@
     <t xml:space="preserve">GuitarX(GB)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of guitar lane(for GBOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギターレーンを表示するX座標。(GBOnlyモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderBD</t>
   </si>
   <si>
     <t xml:space="preserve">BD Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of BD lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderBsB</t>
   </si>
   <si>
     <t xml:space="preserve">B Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of B lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderBsG</t>
   </si>
   <si>
     <t xml:space="preserve">G Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of G lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderBsR</t>
   </si>
   <si>
     <t xml:space="preserve">R Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of R lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderBsW</t>
   </si>
   <si>
     <t xml:space="preserve">W Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of W lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderCY</t>
   </si>
   <si>
     <t xml:space="preserve">CY Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of CY lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderFT</t>
   </si>
   <si>
     <t xml:space="preserve">FT Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of FT lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderGtB</t>
   </si>
   <si>
@@ -3209,73 +3548,139 @@
     <t xml:space="preserve">HH Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of HH lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderHT</t>
   </si>
   <si>
     <t xml:space="preserve">HT Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of HT lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderLC</t>
   </si>
   <si>
     <t xml:space="preserve">LC Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of LC lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderLT</t>
   </si>
   <si>
     <t xml:space="preserve">LT Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of LT lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderSD</t>
   </si>
   <si>
     <t xml:space="preserve">SD Order</t>
   </si>
   <si>
+    <t xml:space="preserve">The order of SD lane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDレーンの順番。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispMovieXBoth</t>
   </si>
   <si>
     <t xml:space="preserve">MovieX(Both)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of windowed movie (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の動画を再生するX座標。(Bothモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispMovieXDr</t>
   </si>
   <si>
     <t xml:space="preserve">MovieX(Dr)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of windowed movie (for DrOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の動画を再生するX座標。(DrOnlyモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispMovieXGB</t>
   </si>
   <si>
     <t xml:space="preserve">MovieX(GB)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of windowed movie (for GBOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の動画を再生するX座標。(GBOnlyモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispMovieYBoth</t>
   </si>
   <si>
     <t xml:space="preserve">MovieY(Both)</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of windowed movie (for Both mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の動画を再生するY座標。(Bothモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispMovieYDr</t>
   </si>
   <si>
     <t xml:space="preserve">MovieY(Dr)</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of windowed movie (for DrOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の動画を再生するY座標。(DrOnlyモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispMovieYGB</t>
   </si>
   <si>
     <t xml:space="preserve">MovieY(GB)</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of windowed movie (for GBOnly mode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の動画を再生するY座標。(GBOnlyモード時)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDgbDisplayGraph</t>
   </si>
   <si>
     <t xml:space="preserve">Graph</t>
   </si>
   <si>
-    <t xml:space="preserve">To draw Graph or not.</t>
+    <t xml:space="preserve">To draw Skill Graph or not.</t>
   </si>
   <si>
     <t xml:space="preserve">最高スキルと比較できるグラフを表示します。\n
@@ -3834,7 +4239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3873,6 +4278,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3952,23 +4361,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3693181818182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.073863636364"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.4943181818182"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8522727272727"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="148.073863636364"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="80.4261363636364"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="269.994318181818"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5738636363636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5511363636364"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.375"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1306818181818"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9375"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.8920454545455"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.1136363636364"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="327.420454545455"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4413,7 +4822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>120</v>
       </c>
@@ -5477,25 +5886,31 @@
       <c r="B119" s="0" t="s">
         <v>399</v>
       </c>
+      <c r="C119" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="F119" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="F120" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5505,1258 +5920,1635 @@
       <c r="B121" s="0" t="s">
         <v>406</v>
       </c>
+      <c r="C121" s="0" t="s">
+        <v>407</v>
+      </c>
       <c r="F121" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>453</v>
+        <v>458</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>456</v>
+        <v>462</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>459</v>
+        <v>466</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>462</v>
+        <v>470</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>465</v>
+        <v>474</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>468</v>
+        <v>478</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>471</v>
+        <v>482</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>474</v>
+        <v>486</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>477</v>
+        <v>490</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>480</v>
+        <v>494</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>483</v>
+        <v>498</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>486</v>
+        <v>502</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>503</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>489</v>
+        <v>506</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>492</v>
+        <v>510</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>511</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>495</v>
+        <v>514</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>477</v>
+        <v>490</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>480</v>
+        <v>494</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>483</v>
+        <v>498</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>486</v>
+        <v>502</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>489</v>
+        <v>506</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>492</v>
+        <v>510</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>495</v>
+        <v>514</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>516</v>
+        <v>543</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>518</v>
+        <v>547</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>520</v>
+        <v>551</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>555</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>536</v>
+        <v>559</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>539</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>540</v>
+        <v>568</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>570</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>542</v>
+        <v>572</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>574</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>543</v>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="F184" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="F185" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>544</v>
+        <v>588</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>545</v>
+        <v>589</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>547</v>
+        <v>593</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>549</v>
+        <v>597</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>551</v>
+        <v>601</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="F190" s="0" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>553</v>
+        <v>605</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>554</v>
+        <v>608</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>555</v>
+        <v>609</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>556</v>
+        <v>612</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>557</v>
+        <v>613</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>559</v>
+        <v>617</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F194" s="0" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>561</v>
+        <v>621</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>563</v>
+        <v>577</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>565</v>
+        <v>628</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>567</v>
+        <v>632</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="F198" s="0" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>569</v>
+        <v>636</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>571</v>
+        <v>593</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="F200" s="0" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>549</v>
+        <v>597</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>551</v>
+        <v>646</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>553</v>
+        <v>650</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>575</v>
+        <v>653</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>555</v>
+        <v>577</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="F204" s="0" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>576</v>
+        <v>656</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>557</v>
+        <v>657</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>577</v>
+        <v>660</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>559</v>
+        <v>632</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>578</v>
+        <v>663</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>579</v>
+        <v>589</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>580</v>
+        <v>666</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>581</v>
+        <v>593</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>549</v>
+        <v>597</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>583</v>
+        <v>672</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>551</v>
+        <v>673</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>584</v>
+        <v>676</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>553</v>
+        <v>677</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>585</v>
+        <v>680</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>555</v>
+        <v>681</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>586</v>
+        <v>684</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>557</v>
+        <v>685</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>587</v>
+        <v>688</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>559</v>
+        <v>689</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>588</v>
+        <v>692</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>589</v>
+        <v>693</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>590</v>
+        <v>696</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>591</v>
+        <v>697</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>592</v>
+        <v>700</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>593</v>
+        <v>701</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>594</v>
+        <v>704</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>595</v>
+        <v>705</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>596</v>
+        <v>708</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>597</v>
+        <v>685</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>598</v>
+        <v>709</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>599</v>
+        <v>689</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="F220" s="0" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>600</v>
+        <v>710</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>601</v>
+        <v>693</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>602</v>
+        <v>711</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>603</v>
+        <v>697</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>604</v>
+        <v>712</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>605</v>
+        <v>713</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>606</v>
+        <v>716</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>595</v>
+        <v>717</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>607</v>
+        <v>720</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>597</v>
+        <v>721</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>608</v>
+        <v>724</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>599</v>
+        <v>725</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>609</v>
+        <v>728</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>601</v>
+        <v>729</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>610</v>
+        <v>732</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>611</v>
+        <v>733</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>612</v>
+        <v>736</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>613</v>
+        <v>737</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>614</v>
+        <v>740</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>615</v>
+        <v>741</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>616</v>
+        <v>744</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>617</v>
+        <v>745</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="F231" s="0" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>618</v>
+        <v>748</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>619</v>
+        <v>749</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F232" s="0" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>620</v>
+        <v>752</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>753</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="F233" s="0" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>622</v>
+        <v>756</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>757</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>626</v>
+        <v>760</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>761</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>628</v>
+        <v>764</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>765</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>630</v>
+        <v>768</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>769</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>632</v>
+        <v>772</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="F239" s="6" t="s">
-        <v>635</v>
+        <v>773</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>636</v>
+        <v>780</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>637</v>
+        <v>781</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>638</v>
+        <v>782</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>639</v>
+        <v>783</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>640</v>
+        <v>784</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>641</v>
+        <v>785</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>642</v>
+        <v>786</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>643</v>
+        <v>787</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>644</v>
+        <v>788</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>645</v>
+        <v>789</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>646</v>
+        <v>790</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>647</v>
+        <v>791</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>648</v>
+        <v>792</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>649</v>
+        <v>793</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>650</v>
+        <v>794</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>656</v>
+        <v>796</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>657</v>
+        <v>797</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>661</v>
+        <v>801</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>662</v>
+        <v>802</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>665</v>
+        <v>805</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>668</v>
+        <v>808</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>669</v>
+        <v>809</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>670</v>
+        <v>810</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>672</v>
+        <v>812</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>813</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>676</v>
+        <v>815</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>816</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>680</v>
+        <v>818</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>819</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>684</v>
+        <v>821</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>687</v>
+        <v>822</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>688</v>
+        <v>827</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>689</v>
+        <v>828</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>690</v>
+        <v>829</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>691</v>
+        <v>830</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>692</v>
+        <v>831</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>693</v>
+        <v>832</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>694</v>
+        <v>833</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>695</v>
+        <v>834</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>696</v>
+        <v>835</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>697</v>
+        <v>836</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>698</v>
+        <v>837</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="E261" s="0" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="E263" s="0" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="E264" s="0" t="s">
-        <v>714</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -6783,33 +7575,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="296.454545454545"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.6818181818182"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="359.744318181818"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>715</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>716</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>717</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>718</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>719</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>

--- a/実行時フォルダ/System/resources.xlsx
+++ b/実行時フォルダ/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="847">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -2657,6 +2657,18 @@
     <t xml:space="preserve">TargetGhost</t>
   </si>
   <si>
+    <t xml:space="preserve">strEnumeratingSongs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now enumerating songs.\n
+         Please wait...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     曲データの一覧を\n
+       取得しています。\n
+   しばらくお待ちください。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDrKeyAssign</t>
   </si>
   <si>
@@ -4132,7 +4144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4182,6 +4194,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4239,7 +4257,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4272,11 +4290,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4363,8 +4385,8 @@
   </sheetPr>
   <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C129" activeCellId="0" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6033,1522 +6055,1533 @@
         <v>434</v>
       </c>
     </row>
+    <row r="132" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>436</v>
+      <c r="A137" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>440</v>
+      <c r="A138" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>444</v>
+      <c r="A139" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="10"/>
+      <c r="C181" s="11"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -7581,27 +7614,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>

--- a/実行時フォルダ/System/resources.xlsx
+++ b/実行時フォルダ/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="859">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -431,7 +431,7 @@
 If you turn it ON, it decrease the lag which comes from the difference of hardware/OS.\n
 Usually, you should turn it ON.\n
 \n
-Note: This setting is effetive only when DSound(DirectSound) in SoundType is used.</t>
+Note: This setting is effective only when DSound(DirectSound) in SoundType is used.</t>
   </si>
   <si>
     <r>
@@ -515,6 +515,32 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">strCfgSysSleepUnfocus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackSleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait time(ms) per frame, when DTXMania is NOT focused. If you increase the value, the performance of capture/encoding AUTO-playback may improve. The default value is 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTXManiaのウインドウにフォーカスを合わせていない時の、画面描画ごとの待ち時間を、ms単位で設定します。AUTO演奏を動画キャプチャしたり配信したりする場合に、この値を変更することで、エンコードや配信の性能を向上できる可能性があります。初期値は1です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSysSleepPerFrame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SleepTimePerFrame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait time(ms) per frame, when DTXMania is focused. If you increase the value, the performance of capture/encoding your playback may improve. The default value is -1.\n
+If you set -1, DTXMania does not release its process to OS in each frame (however OS may rob it from DTXMania). If you set 0, DTXMania implicitly release its process in each frame to OS. If you set the value bigger than 0, DTXMania release its process, and wait at least specified time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTXManiaのウインドウにフォーカスを合わせている場合の、画面描画ごとの待ち時間を、ms単位で設定します。自分の演奏画面を動画キャプチャしたり配信したりする場合に、この値を変更することで、エンコードや配信の性能を向上できる可能性があります。初期値は-1です。\n 
+-1を指定すると、毎フレームの描画が完了した時に、明示的に他のアプリにCPUの処理を渡すことはしません。しかし、0を指定すると、一旦他のアプリにCPUの処理を渡す(しかし、すぐにまたDTXManiaに処理が戻るかもしれない)、という違いがあります。1以上を指定すると、一旦他のアプリに処理を移し、更に最低でも指定時間だけ何も処理をせずに待ちます。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgSysAVI</t>
   </si>
   <si>
@@ -608,7 +634,7 @@
     <t xml:space="preserve">BGAlpha</t>
   </si>
   <si>
-    <t xml:space="preserve">The degree for transparing playing screen and wallpaper.\n
+    <t xml:space="preserve">The transparent degree for playing screen and wallpaper.\n
 \n
 0=no transparent, 255=completely transparency.</t>
   </si>
@@ -1040,11 +1066,11 @@
   <si>
     <t xml:space="preserve">Use OS Timer or not:\n
 If this settings is ON, DTXMania uses OS Standard timer. It brings smooth scroll, but may cause some sound lag.\n
-(so AdjustWaves is also avilable)\n
+(so AdjustWaves is also available)\n
 \n
 If OFF, DTXMania uses its original timer and the effect is vice versa.\n
 \n
-This settings is avilable only when you use WASAPI/ASIO.</t>
+This settings is available only when you use WASAPI/ASIO.</t>
   </si>
   <si>
     <t xml:space="preserve">OSタイマーを使用するかどうか:\n
@@ -1071,6 +1097,25 @@
 全体の音量を設定します。\n
 0が無音で、100が最大値です。\n
 (WASAPI/ASIO時のみ有効です)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSysPolyphonicSounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolyphonicSounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum polyphonic sounds for each drum lanes.\n
+You can reduce the CPU load by reducing it.\n
+\n
+BTW, Guitar/Bass’s one is 1 or 2 (depends on whether this settings=1 or not), and BGM/SE’s one is always 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラムレーン毎の最大多重再生数を設定します。初期値は4です。\n
+この値を小さくすることで、演奏負荷を軽減できます。\n
+\n
+なおギター/ベースの最大多重再生数は2か1 (この設定が1か否かで決定)で、BGMやSE音の多重再生数は常に1です。
+</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysSkin</t>
@@ -4144,7 +4189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4194,12 +4239,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FFA31515"/>
-      <name val="MS Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4257,7 +4296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4290,15 +4329,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4383,23 +4418,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C129" activeCellId="0" sqref="C129"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5738636363636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5511363636364"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.375"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1306818181818"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9375"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.8920454545455"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.1136363636364"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="327.420454545455"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0340909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8068181818182"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.4943181818182"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4829545454545"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5909090909091"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.3579545454546"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.9659090909091"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="360.647727272727"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.4772727272727"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,7 +4711,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>72</v>
       </c>
@@ -4732,7 +4767,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>88</v>
       </c>
@@ -4760,21 +4795,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="108.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>100</v>
       </c>
@@ -4816,14 +4851,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>112</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -4844,7 +4879,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>120</v>
       </c>
@@ -4858,57 +4893,57 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="4"/>
       <c r="F33" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>128</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>136</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>138</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -4929,7 +4964,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>144</v>
       </c>
@@ -4943,7 +4978,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>148</v>
       </c>
@@ -4957,7 +4992,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>152</v>
       </c>
@@ -4967,73 +5002,73 @@
       <c r="C40" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="F40" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="6" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="B41" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="6" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="B42" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="F42" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="6" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B43" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="6" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B44" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>174</v>
       </c>
@@ -5043,42 +5078,42 @@
       <c r="C45" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="F45" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="6" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="B46" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F46" s="6" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="B47" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="C47" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>185</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>187</v>
       </c>
@@ -5092,8 +5127,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -5106,7 +5141,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>195</v>
       </c>
@@ -5120,11 +5155,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="0" t="s">
         <v>200</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -5134,11 +5169,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="0" t="s">
         <v>204</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -5148,11 +5183,11 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="0" t="s">
         <v>208</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -5162,72 +5197,72 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4"/>
-      <c r="C54" s="6"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+    <row r="54" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>211</v>
       </c>
+      <c r="B54" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>215</v>
+      </c>
       <c r="B55" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="4"/>
+      <c r="C57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>223</v>
-      </c>
+      <c r="A59" s="7"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -5247,61 +5282,61 @@
       <c r="A61" s="0" t="s">
         <v>228</v>
       </c>
+      <c r="B61" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="C61" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="C65" s="0" t="s">
         <v>243</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5353,137 +5388,137 @@
       <c r="B69" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="4" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="C72" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="F72" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="6" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="B74" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="C74" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="4"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+      <c r="F74" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="4" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B82" s="0" t="s">
         <v>288</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>289</v>
@@ -5520,627 +5555,627 @@
         <v>298</v>
       </c>
     </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>288</v>
+        <v>311</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="C98" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F96" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>333</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="B100" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="D100" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="F100" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C100" s="6" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="B101" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="D101" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="F101" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C101" s="6" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="B102" s="0" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="C102" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="D102" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D102" s="4" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="B103" s="0" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="C103" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="D103" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F103" s="6" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="B104" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="F104" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F104" s="6" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="C106" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>362</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="B115" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F115" s="4" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="B116" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="C116" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="D116" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="F117" s="0" t="s">
         <v>392</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="C118" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="F118" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="F118" s="0" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="B119" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="C119" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="F119" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D119" s="4" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="B120" s="4" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="D120" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>402</v>
+      <c r="F120" s="6" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="C121" s="0" t="s">
         <v>407</v>
       </c>
+      <c r="C121" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="F121" s="0" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="C122" s="6" t="s">
         <v>411</v>
       </c>
+      <c r="C122" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="D122" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="D123" s="4" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="F123" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F123" s="6" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="B124" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F124" s="6" t="s">
+      <c r="C124" s="0" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F124" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C126" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>425</v>
-      </c>
       <c r="C127" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="F127" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="D127" s="4" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F127" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>437</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F137" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9" t="s">
+      <c r="B132" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="C132" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="F132" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F138" s="4" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="9" t="s">
+      <c r="B133" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B139" s="10" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="C135" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="F135" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C140" s="3" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="B140" s="9" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="C140" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="F140" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C141" s="3" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="B141" s="9" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="C141" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="F141" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C142" s="3" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="B142" s="9" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6359,152 +6394,152 @@
         <v>520</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>505</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>509</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>513</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>517</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>521</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B168" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C168" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F170" s="4" t="s">
+      <c r="F168" s="3" t="s">
         <v>556</v>
       </c>
     </row>
@@ -6522,86 +6557,86 @@
         <v>560</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>561</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="4" t="s">
         <v>563</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="B173" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="F177" s="0" t="s">
+      <c r="C173" s="4" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="F173" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C178" s="0" t="s">
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="F178" s="0" t="s">
+      <c r="B174" s="0" t="s">
         <v>570</v>
       </c>
+      <c r="C174" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="11"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="F182" s="0" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="C183" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="F183" s="0" t="s">
-        <v>578</v>
+      <c r="A181" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="F184" s="0" t="s">
-        <v>582</v>
-      </c>
+      <c r="C184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
@@ -6762,49 +6797,49 @@
         <v>627</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>580</v>
+        <v>628</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>639</v>
+        <v>592</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>640</v>
@@ -6818,175 +6853,175 @@
         <v>642</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>596</v>
+        <v>643</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>653</v>
+        <v>608</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>592</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>676</v>
+        <v>604</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>680</v>
+        <v>608</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>684</v>
+        <v>612</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>685</v>
@@ -7084,46 +7119,46 @@
         <v>711</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="B222" s="0" t="s">
         <v>700</v>
@@ -7137,44 +7172,44 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,59 +7324,59 @@
         <v>758</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>759</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="F234" s="6" t="s">
+      <c r="F234" s="0" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>768</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="F236" s="0" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="B238" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C237" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="F237" s="6" t="s">
         <v>774</v>
       </c>
     </row>
@@ -7429,45 +7464,45 @@
         <v>798</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>807</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="F248" s="3" t="s">
         <v>810</v>
       </c>
     </row>
@@ -7485,103 +7520,145 @@
         <v>814</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>820</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="7" t="s">
-        <v>827</v>
+      <c r="A255" s="0" t="s">
+        <v>830</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>836</v>
+      <c r="A258" s="7" t="s">
+        <v>839</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -7608,33 +7685,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="359.744318181818"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.9090909090909"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.375"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>

--- a/実行時フォルダ/System/resources.xlsx
+++ b/実行時フォルダ/System/resources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="resources" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="863">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -1118,6 +1118,30 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">strCfgSysLoadDTXDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoadDTXDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To analyze in detail the internal information when you get the song data, and outputs the more detailed information on the screen.\n
+\n
+After you have this set to ON, remove the songs.db you want to run the Reload Songs, please re-acquire the song data.\n
+* acquisition time of the song data will be extended remarkably.\n
+\n
+It will be able to obtain the following information.\n
+And use the number of lanes (Drums only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲データを取得する時に内部情報を詳しく解析し、より詳細な情報を画面に出力します。\n
+\n
+この設定をONにした後は、Reload Songsを実行するかsongs.dbを削除し、曲データを取得し直してください。\n
+※曲データの取得時間が格段に延長されます。\n
+\n
+以下の情報を取得できるようになります。\n
+・使用レーン数(Drumsのみ)</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgSysSkin</t>
   </si>
   <si>
@@ -1405,14 +1429,14 @@
     <t xml:space="preserve">Turn OFF if you don't want to play hitting chip sound.\n
 It is useful to play with real/electric drums kit.\n
 \n
-Warning: You should not use BD Group BD-1 with HitSound OFF.</t>
+Warning: You should not use (BD Group = [Group]) with HitSound OFF.</t>
   </si>
   <si>
     <t xml:space="preserve">打撃音の再生：\n
 これをOFFにすると、パッドを叩いたときの音を再生しなくなります（ドラムのみ）。\n
 電子ドラム本来の音色で演奏したい場合などにOFF にします。\n
 \n
-注意：BD Group が BD-1 である場合は不具合が生じます。</t>
+注意：BD Group が [Group] である場合は不具合が生じます。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrChipSound</t>
@@ -1573,17 +1597,17 @@
     <t xml:space="preserve">HH Grouping</t>
   </si>
   <si>
-    <t xml:space="preserve">HH-0: LC|HC|HO;\n
+    <t xml:space="preserve">Off:   LC|HC|HO;\n
  all are separated.\n
-HH-1: LC&amp;(HC|HO);\n
+HO_HC: LC&amp;(HC|HO);\n
  HC and HO are separated.\n
  LC is grouped with HC and HHO.\n
-HH-2: LC|(HC&amp;HO);\n
+LC_HH: LC|(HC&amp;HO);\n
  LC and HHs are separated.\n
  HC and HO are grouped.\n
-HH-3: LC&amp;HC&amp;HO; all are grouped.\n
+Group: LC&amp;HC&amp;HO; all are grouped.\n
 \n
-* This value cannot be changed while BD Group is set as BD-1.</t>
+* This value cannot be changed while BD Group is set as [Group].</t>
   </si>
   <si>
     <r>
@@ -1660,12 +1684,12 @@
   <si>
     <t xml:space="preserve">ハイハットレーン打ち分け設定：\n
 左シンバル、ハイハットオープン、ハイハットクローズの打ち分け方法を指定します。\n
-  HH-0 ... LC | HHC | HHO\n
-  HH-1 ... LC &amp; ( HHC | HHO )\n
-  HH-2 ... LC | ( HHC &amp; HHO )\n
-  HH-3 ... LC &amp; HHC &amp; HHO\n
+  Off:   ... LC | HHC | HHO\n
+  HO_HC: ... LC &amp; ( HHC | HHO )\n
+  LC_HH: ... LC | ( HHC &amp; HHO )\n
+  Group ... LC &amp; HHC &amp; HHO\n
 \n
-※BD Group が BD-1 である場合、この項目は変更できません。</t>
+※BD Grouping が [Group] である場合、この項目は変更できません。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrFTGroup</t>
@@ -1674,9 +1698,9 @@
     <t xml:space="preserve">FT Grouping</t>
   </si>
   <si>
-    <t xml:space="preserve">FT-0: LT|FT\n
+    <t xml:space="preserve">Off:   LT|FT\n
  LT and FT are separated.\n
-FT-1: LT&amp;FT\n
+Group: LT&amp;FT\n
  LT and FT are grouped.</t>
   </si>
   <si>
@@ -1714,8 +1738,8 @@
   <si>
     <t xml:space="preserve">フロアタム打ち分け設定：\n
 ロータムとフロアタムの打ち分け方法を指定します。\n
-  FT-0 ... LT | FT\n
-  FT-1 ... LT &amp; FT</t>
+  Off:   ... LT | FT\n
+  Group: ... LT &amp; FT</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrCYGroup</t>
@@ -1724,9 +1748,9 @@
     <t xml:space="preserve">CY Grouping</t>
   </si>
   <si>
-    <t xml:space="preserve">CY-0: CY|RD\n
+    <t xml:space="preserve">Off:   CY|RD\n
  CY and RD are separated.\n
-CY-1: CY&amp;RD\n
+Group: CY&amp;RD\n
  CY and RD are grouped.</t>
   </si>
   <si>
@@ -1772,7 +1796,7 @@
       </rPr>
       <t xml:space="preserve">シンバルレーン打ち分け設定：\n
 右シンバルとライドシンバルの打ち分け方法を指定します。\n
-  CY-0 ... CY | RD</t>
+  Off:   ... CY | RD</t>
     </r>
     <r>
       <rPr>
@@ -1793,7 +1817,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">  CY-1 ... CY &amp; RD</t>
+      <t xml:space="preserve">  Group: ... CY &amp; RD</t>
     </r>
   </si>
   <si>
@@ -1803,13 +1827,13 @@
     <t xml:space="preserve">BD Grouping</t>
   </si>
   <si>
-    <t xml:space="preserve">BD-0: HP|BD\n
+    <t xml:space="preserve">Off:   HP|BD\n
  HiHatPedal is HiHat.\n
-BD-1: HP&amp;BD\n
+Group: HP&amp;BD\n
  HiHatPedal is Bass.\n
 \n
-Warning: You should not use BD-1 with HitSound OFF.
-And you cannot change some options while using BD-1.</t>
+Warning: You should not use [Group] with HitSound OFF.
+And you cannot change some options while using [Group].</t>
   </si>
   <si>
     <r>
@@ -1846,11 +1870,11 @@
   <si>
     <t xml:space="preserve">バス数設定：\n
 ハイハットペダルをバスとして利用する方法を指定します。\n
-  BD-0 ... HP | BD\n
-  BD-1 ... FP &amp; BD\n
+  Off:   ... HP | BD\n
+  Group: ... FP &amp; BD\n
 \n
 注意：HitSound が OFF である場合は不具合が生じます。\n
-また、BD-1 を選択している間はいくつかのオプションが変更できなくなります。</t>
+また、[Group] を選択している間はいくつかのオプションが変更できなくなります。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrCymbalFree</t>
@@ -1860,11 +1884,11 @@
   </si>
   <si>
     <t xml:space="preserve">Turn ON to group LC (left cymbal) and CY (right cymbal).\n
-Whether RD (ride cymbal) is also grouped or not depends on the 'CY Group' setting.</t>
+Whether RD (ride cymbal) is also grouped or not depends on the 'CY Grouping' setting.</t>
   </si>
   <si>
     <t xml:space="preserve">シンバルフリーモード：\n
-左シンバル・右シンバルの区別をなくします。ライドシンバルまで区別をなくすか否かは、CYGroup に従います。</t>
+左シンバル・右シンバルの区別をなくします。ライドシンバルまで区別をなくすか否かは、CY Grouping に従います。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrHHPriority</t>
@@ -1873,14 +1897,14 @@
     <t xml:space="preserve">HH Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">To specify playing sound in case you're using HH-0,1 and 2.\n
+    <t xml:space="preserve">To specify playing sound in case you're using (HH Grouping=[Off]).\n
 \n
-C&gt;P:\n
+Chip:\n
  Chip sound is prior to the pad sound.\n
-P&gt;C:\n
+Pad:\n
  Pad sound is prior to the chip sound.\n
 \n
-* This value cannot be changed while BD Group is set as BD-1.</t>
+* This value cannot be changed while BD Group is set as [Group].</t>
   </si>
   <si>
     <r>
@@ -1917,10 +1941,10 @@
   <si>
     <t xml:space="preserve">発声音決定の優先順位：\n
 ハイハットレーン打ち分け有効時に、チップの発声音をどのように決定するかを指定します。\n
-  C &gt; P ... チップの音が優先\n
-  P &gt; C ... 叩いたパッドの音が優先\n
+  Chip ... チップの音が優先\n
+  Pad  … 叩いたパッドの音が優先\n
 \n
-※BD Group が BD-1 である場合、この項目は変更できません。</t>
+※BD Grouping が [Group] である場合、この項目は変更できません。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrFTPriority</t>
@@ -1929,18 +1953,18 @@
     <t xml:space="preserve">FT Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">To specify playing sound in case you're using FT-0.\n
+    <t xml:space="preserve">To specify playing sound in case you're using (FT Grouping=[Off]).\n
 \n
-C&gt;P:\n
+Chip:\n
  Chip sound is prior to the pad sound.\n
-P&gt;C:\n
+Pad:\n
  Pad sound is prior to the chip sound.</t>
   </si>
   <si>
     <t xml:space="preserve">発声音決定の優先順位：\n
 フロアタム打ち分け有効時に、チップの発声音をどのように決定するかを指定します。\n
-  C &gt; P ... チップの音が優先\n
-  P &gt; C ... 叩いたパッドの音が優先</t>
+  Chip ... チップの音が優先\n
+  Pad  … 叩いたパッドの音が優先</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrCYPriority</t>
@@ -1949,18 +1973,18 @@
     <t xml:space="preserve">CY Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">To specify playing sound in case you're using CY-0.\n
+    <t xml:space="preserve">To specify playing sound in case you're using (CY Grouping=[Off].\n
 \n
-C&gt;P:\n
+Chip:\n
  Chip sound is prior to the pad sound.\n
-P&gt;C:\n
+Pad:\n
  Pad sound is prior to the chip sound.</t>
   </si>
   <si>
     <t xml:space="preserve">発声音決定の優先順位：\n
 シンバル打ち分け有効時に、チップの発声音をどのように決定するかを指定します。\n
-  C &gt; P ... チップの音が優先\n
-  P &gt; C ... 叩いたパッドの音が優先</t>
+  Chip ... チップの音が優先\n
+  Pad  … 叩いたパッドの音が優先</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrFillin</t>
@@ -4418,23 +4442,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0340909090909"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8068181818182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.4943181818182"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4829545454545"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5909090909091"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.3579545454546"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.9659090909091"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="360.647727272727"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.4772727272727"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9147727272727"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.835227272727"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6420454545455"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1988636363636"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="85.2386363636364"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.5852272727273"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5113636363636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,8 +5220,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -5225,7 +5248,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>219</v>
       </c>
@@ -5240,43 +5263,43 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="4"/>
-      <c r="C57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="A57" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="A60" s="7"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -5285,10 +5308,10 @@
       <c r="B61" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5299,10 +5322,10 @@
       <c r="B62" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="0" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5324,33 +5347,33 @@
       <c r="A64" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="B64" s="4" t="s">
         <v>241</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C66" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="C66" s="0" t="s">
         <v>247</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,109 +5453,109 @@
       <c r="B72" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B73" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C73" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F73" s="0" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F75" s="6" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="B76" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="D76" s="4" t="s">
         <v>283</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="4"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="F78" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>293</v>
@@ -5559,7 +5582,7 @@
       <c r="A85" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -5573,7 +5596,7 @@
       <c r="A86" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="0" t="s">
         <v>304</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -5597,198 +5620,198 @@
         <v>310</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C89" s="0" t="s">
+      <c r="B88" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="C88" s="4" t="s">
         <v>313</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B92" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B93" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>304</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B96" s="0" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="B95" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F95" s="0" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="97" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B97" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C97" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D100" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="C100" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="B101" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="D101" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="F101" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="F102" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="F102" s="6" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="B103" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="D103" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="F103" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="F103" s="6" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="B104" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="D104" s="4" t="s">
         <v>357</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>359</v>
       </c>
@@ -5798,25 +5821,22 @@
       <c r="C105" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="F105" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="F105" s="6" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="B106" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="C106" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>367</v>
@@ -5833,89 +5853,92 @@
         <v>370</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="108" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B108" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C108" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="D108" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="110" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F112" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>381</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>382</v>
       </c>
+      <c r="C113" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="C116" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D116" s="4" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="B115" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="B117" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="C117" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" s="3" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5929,52 +5952,52 @@
       <c r="C118" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="0" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>397</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F119" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="0" t="s">
         <v>402</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="F120" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="F120" s="6" t="s">
+    </row>
+    <row r="121" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="B121" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="C121" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="D121" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" s="6" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5988,67 +6011,64 @@
       <c r="C122" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="F122" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="F122" s="0" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
+      <c r="B123" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="C123" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="D123" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>414</v>
+        <v>417</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="F124" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C124" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>421</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="F125" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="F125" s="6" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="B126" s="0" t="s">
         <v>426</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>422</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>427</v>
@@ -6065,33 +6085,36 @@
         <v>430</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F127" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="D128" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="F129" s="3" t="s">
+      <c r="F128" s="6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>436</v>
       </c>
@@ -6105,55 +6128,55 @@
         <v>439</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F132" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>445</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="C133" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="F133" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F135" s="6" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8" t="s">
+      <c r="B134" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="B140" s="9" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C136" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F136" s="6" t="s">
         <v>453</v>
       </c>
     </row>
@@ -6178,18 +6201,18 @@
       <c r="B142" s="9" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="C142" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="F142" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C143" s="3" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="B143" s="9" t="s">
         <v>463</v>
       </c>
     </row>
@@ -6436,105 +6459,105 @@
         <v>532</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>509</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>513</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>517</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>521</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>525</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="B168" s="4" t="s">
         <v>554</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>533</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>555</v>
@@ -6543,17 +6566,17 @@
         <v>556</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+    <row r="169" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B169" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F169" s="3" t="s">
         <v>560</v>
       </c>
     </row>
@@ -6599,58 +6622,58 @@
         <v>572</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>573</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="4" t="s">
         <v>575</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+    <row r="176" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="B176" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="F180" s="0" t="s">
+      <c r="C176" s="6" t="s">
         <v>579</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="10"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="F185" s="0" t="s">
-        <v>586</v>
-      </c>
+      <c r="C185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
@@ -6839,21 +6862,21 @@
         <v>639</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>592</v>
+        <v>640</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>643</v>
+        <v>596</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>644</v>
@@ -6895,35 +6918,35 @@
         <v>654</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>612</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>661</v>
+        <v>616</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>662</v>
@@ -6951,21 +6974,21 @@
         <v>668</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>592</v>
+        <v>669</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>672</v>
+        <v>596</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>673</v>
@@ -6979,63 +7002,63 @@
         <v>675</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>604</v>
+        <v>651</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>608</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>612</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>688</v>
+        <v>616</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>689</v>
@@ -7161,18 +7184,18 @@
         <v>723</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>704</v>
@@ -7186,7 +7209,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>708</v>
@@ -7200,7 +7223,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>712</v>
@@ -7214,16 +7237,16 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7366,31 +7389,31 @@
         <v>770</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>771</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C237" s="0" t="s">
         <v>773</v>
       </c>
-      <c r="F237" s="6" t="s">
+      <c r="F237" s="0" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+    <row r="238" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B238" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C238" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="F239" s="3" t="s">
+      <c r="F238" s="6" t="s">
         <v>778</v>
       </c>
     </row>
@@ -7506,17 +7529,17 @@
         <v>810</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+    <row r="248" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B248" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C248" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="F249" s="3" t="s">
+      <c r="F248" s="3" t="s">
         <v>814</v>
       </c>
     </row>
@@ -7562,103 +7585,117 @@
         <v>826</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+    <row r="253" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B253" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="E254" s="0" t="s">
+      <c r="C253" s="3" t="s">
         <v>829</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="7" t="s">
-        <v>839</v>
+      <c r="A258" s="0" t="s">
+        <v>840</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>842</v>
+      <c r="A259" s="7" t="s">
+        <v>843</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -7685,33 +7722,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.9090909090909"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7159090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.4772727272727"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/実行時フォルダ/System/resources.xlsx
+++ b/実行時フォルダ/System/resources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="resources" sheetId="1" state="visible" r:id="rId2"/>
@@ -763,9 +763,9 @@
   </si>
   <si>
     <t xml:space="preserve">About displaying the lag from the \"just timing\".\n
- OFF: Don't show it.\n
- ON: Show it.\n
- GREAT-: Show it except you've gotten PERFECT.</t>
+ OFF:    Don't show it.\n
+ ON:     Show it.\n
+ UGreat: Show it except you've gotten PERFECT.</t>
   </si>
   <si>
     <r>
@@ -822,9 +822,9 @@
   <si>
     <t xml:space="preserve">ズレ時間表示：\n
 ジャストタイミングからのズレ時間(ms)を表示します。\n
- OFF: ズレ時間を表示しません。\n
- ON: ズレ時間を表示します。\n
- GREAT-: PERFECT以外の時のみ表示します。</t>
+ OFF:    ズレ時間を表示しません。\n
+ ON:     ズレ時間を表示します。\n
+ UGreat: PERFECT以外の時のみ表示します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysAutoResultCapture</t>
@@ -2223,11 +2223,11 @@
         appears.\n
 Hidden: The chips are hidden by approaching to\n
         the hit bar.\n
-Sud+Hid: Both Sudden and Hidden.\n
-S(emi)-Invisible:\n
+SudHid: Both Sudden and Hidden.\n
+S(emi)Inv(isible):\n
         Usually you can't see the chips except\n
         you've gotten Poor/Miss.\n
-F(ull)-Invisible:\n
+F(ull)Inv(isible):\n
         You can't see the chips at all.</t>
   </si>
   <si>
@@ -2348,12 +2348,12 @@
 　　　　されなくなります。\n
 Hidden: チップがヒットバー付近で表示されなく\n
 　　　　なります。\n
-Sud+Hid: SuddenとHiddenの効果を同時にかけ\n
+SudHid: SuddenとHiddenの効果を同時にかけ\n
 　　　　ます。\n
-S(emi)-Invisible:\n
+S(emi)Inv(isible):\n
 　　　　通常はチップを透明にしますが、Poor /\n
 　　　　Miss時にはしばらく表示します。\n
-F(ull)-Invisible:\n
+F(ull)Inv(isible):\n
 　　　　チップを常に透明にします。暗譜での練習\n
 　　　　にお使いください。</t>
   </si>
@@ -4444,20 +4444,21 @@
   </sheetPr>
   <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A114" activeCellId="0" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9147727272727"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.835227272727"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6420454545455"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1988636363636"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="85.2386363636364"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.5852272727273"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5113636363636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.6590909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7727272727273"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="116.505681818182"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4431818181818"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1534090909091"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="93.9545454545454"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.3409090909091"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.3693181818182"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7722,8 +7723,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7159090909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.4772727272727"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5681818181818"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.6818181818182"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/実行時フォルダ/System/resources.xlsx
+++ b/実行時フォルダ/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="884">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t xml:space="preserve">入力許容タイミングの設定を行います。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSoundOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound related sub-options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サウンド関係の設定を行います。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysEnumSongs</t>
@@ -4191,6 +4203,65 @@
     <t xml:space="preserve">終了</t>
   </si>
   <si>
+    <t xml:space="preserve">strCfgSysClickType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metronome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metronome settings:\n
+Off: No metronome sound.\n
+OnBeat: Playback metronome on beat.\n
+OffBeat: Playback metronome off beat.\n
+Triplet:  Playback metronome as triplet. (not implemented yet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off,OnBeat,OffBeat,Triplet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メトロノーム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メトロノーム音の設定:\n
+Off: メトロノーム音を再生しません。\n
+OnBeat: 表拍でメトロノームを再生します。\n
+OffBeat: 裏拍でメトロノームを再生します。\n
+Triplet:  三連符でメトロノーム音を再生します。(未実装)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off,表拍,裏拍,三連符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSysClickHighVolume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighClickVolume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metronome volume at BAR line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小節線音量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小節線での音量を設定します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSysClickLowVolume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LowClickVolume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metronome volume at BEAT line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拍線音量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拍線での音量を設定します。</t>
+  </si>
+  <si>
     <t xml:space="preserve">header name must be “languagecode.[title|value|items]”</t>
   </si>
   <si>
@@ -4213,7 +4284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4277,6 +4348,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4320,7 +4397,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4363,6 +4440,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4442,23 +4523,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G263"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A114" activeCellId="0" sqref="A114"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.6590909090909"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7727272727273"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="116.505681818182"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4431818181818"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1534090909091"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="93.9545454545454"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.3409090909091"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.3693181818182"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.7727272727273"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9318181818182"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="128.380681818182"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3977272727273"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4034090909091"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="103.426136363636"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.3977272727273"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.5227272727273"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.375"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,74 +4735,75 @@
         <v>48</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="6" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>68</v>
       </c>
@@ -4735,8 +4817,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="20" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -4749,21 +4831,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>80</v>
       </c>
@@ -4777,11 +4859,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="0" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -4791,21 +4873,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>92</v>
       </c>
@@ -4819,7 +4901,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>96</v>
       </c>
@@ -4833,7 +4915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="108.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>100</v>
       </c>
@@ -4847,14 +4929,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="108.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>104</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -4868,7 +4950,7 @@
       <c r="B29" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>110</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -4882,7 +4964,7 @@
       <c r="B30" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>114</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -4896,14 +4978,14 @@
       <c r="B31" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>120</v>
       </c>
@@ -4917,7 +4999,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>124</v>
       </c>
@@ -4931,7 +5013,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>128</v>
       </c>
@@ -4945,17 +5027,16 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="4"/>
       <c r="F35" s="6" t="s">
         <v>135</v>
       </c>
@@ -4964,31 +5045,32 @@
       <c r="A36" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>140</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>144</v>
       </c>
@@ -5002,7 +5084,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>148</v>
       </c>
@@ -5030,7 +5112,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>156</v>
       </c>
@@ -5044,7 +5126,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>160</v>
       </c>
@@ -5054,28 +5136,28 @@
       <c r="C42" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="F42" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="6" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B43" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>169</v>
       </c>
@@ -5085,28 +5167,28 @@
       <c r="C44" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="F44" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="6" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="B45" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>178</v>
       </c>
@@ -5120,7 +5202,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>182</v>
       </c>
@@ -5130,29 +5212,29 @@
       <c r="C47" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="F47" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F47" s="6" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B48" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="C48" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+    <row r="49" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>191</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -5165,8 +5247,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -5179,7 +5261,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>199</v>
       </c>
@@ -5193,7 +5275,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>203</v>
       </c>
@@ -5207,7 +5289,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>207</v>
       </c>
@@ -5221,11 +5303,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+    <row r="54" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="0" t="s">
         <v>212</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -5235,8 +5317,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -5263,7 +5345,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>223</v>
       </c>
@@ -5278,43 +5360,43 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="4"/>
-      <c r="C58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="A58" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="A61" s="7"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -5323,10 +5405,10 @@
       <c r="B62" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5337,10 +5419,10 @@
       <c r="B63" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="0" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5362,33 +5444,33 @@
       <c r="A65" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="B65" s="4" t="s">
         <v>245</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C67" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="C67" s="0" t="s">
         <v>251</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,52 +5550,52 @@
       <c r="B73" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B74" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C74" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F74" s="0" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F76" s="6" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="B77" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="D77" s="4" t="s">
         <v>287</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -5524,53 +5606,53 @@
       <c r="A78" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="4"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="F79" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>297</v>
@@ -5597,7 +5679,7 @@
       <c r="A86" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -5611,7 +5693,7 @@
       <c r="A87" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="0" t="s">
         <v>308</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -5635,198 +5717,198 @@
         <v>314</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="B89" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="C89" s="4" t="s">
         <v>317</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B93" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B94" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>308</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B97" s="0" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="B96" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F96" s="0" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="98" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B98" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C98" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D101" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="C101" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="B102" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="F102" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="D103" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="F103" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="F103" s="6" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="B104" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="D104" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="F104" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F104" s="6" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="B105" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="C105" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="D105" s="4" t="s">
         <v>361</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>363</v>
       </c>
@@ -5836,25 +5918,22 @@
       <c r="C106" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="F106" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="F106" s="6" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="B107" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="D107" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>371</v>
@@ -5871,89 +5950,92 @@
         <v>374</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="109" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B109" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C109" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="D109" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F109" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="111" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F113" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>385</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>386</v>
       </c>
+      <c r="C114" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="C117" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D117" s="4" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="B116" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="B118" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="C118" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" s="3" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5967,52 +6049,52 @@
       <c r="C119" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="0" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>401</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="0" t="s">
         <v>406</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="F121" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="F121" s="6" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="B122" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="C122" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="D122" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" s="6" t="s">
         <v>413</v>
       </c>
     </row>
@@ -6026,67 +6108,64 @@
       <c r="C123" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="F123" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="F123" s="0" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7" t="s">
+      <c r="B124" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="C124" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="D124" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>418</v>
+        <v>421</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="F125" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C125" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>425</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="F126" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="F126" s="6" t="s">
+    </row>
+    <row r="127" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="B127" s="0" t="s">
         <v>430</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>426</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>431</v>
@@ -6103,33 +6182,36 @@
         <v>434</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F128" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="D129" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="F130" s="3" t="s">
+      <c r="F129" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>440</v>
       </c>
@@ -6143,55 +6225,55 @@
         <v>443</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F133" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>449</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="C134" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="F134" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F136" s="6" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8" t="s">
+      <c r="B135" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B141" s="9" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C137" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F137" s="6" t="s">
         <v>457</v>
       </c>
     </row>
@@ -6216,18 +6298,18 @@
       <c r="B143" s="9" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="C143" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="F143" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C144" s="3" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="B144" s="9" t="s">
         <v>467</v>
       </c>
     </row>
@@ -6474,105 +6556,105 @@
         <v>536</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>513</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>517</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>521</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>525</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>529</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>533</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="B169" s="4" t="s">
         <v>558</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>537</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>559</v>
@@ -6581,17 +6663,17 @@
         <v>560</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+    <row r="170" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B170" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C170" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F170" s="3" t="s">
         <v>564</v>
       </c>
     </row>
@@ -6637,58 +6719,58 @@
         <v>576</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>577</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="4" t="s">
         <v>579</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+    <row r="177" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="B177" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="F181" s="0" t="s">
+      <c r="C177" s="6" t="s">
         <v>583</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="10"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="F186" s="0" t="s">
-        <v>590</v>
-      </c>
+      <c r="C186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
@@ -6877,21 +6959,21 @@
         <v>643</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="C201" s="0" t="s">
         <v>648</v>
@@ -6933,35 +7015,35 @@
         <v>658</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>612</v>
+        <v>659</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B205" s="0" t="s">
         <v>616</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>665</v>
+        <v>620</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>666</v>
@@ -6989,21 +7071,21 @@
         <v>672</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>676</v>
+        <v>600</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>677</v>
@@ -7017,63 +7099,63 @@
         <v>679</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>651</v>
+        <v>680</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>612</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>616</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>692</v>
+        <v>620</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>693</v>
@@ -7199,18 +7281,18 @@
         <v>727</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>708</v>
@@ -7224,7 +7306,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>712</v>
@@ -7238,7 +7320,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>716</v>
@@ -7252,16 +7334,16 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7404,31 +7486,31 @@
         <v>774</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>775</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="0" t="s">
         <v>777</v>
       </c>
-      <c r="F238" s="6" t="s">
+      <c r="F238" s="0" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+    <row r="239" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
         <v>779</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B239" s="0" t="s">
         <v>780</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C239" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="F239" s="6" t="s">
         <v>782</v>
       </c>
     </row>
@@ -7544,17 +7626,17 @@
         <v>814</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+    <row r="249" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="B249" s="0" t="s">
         <v>816</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C249" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="F250" s="3" t="s">
+      <c r="F249" s="3" t="s">
         <v>818</v>
       </c>
     </row>
@@ -7600,103 +7682,174 @@
         <v>830</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+    <row r="254" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="B254" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="E255" s="0" t="s">
+      <c r="C254" s="3" t="s">
         <v>833</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="7" t="s">
-        <v>843</v>
+      <c r="A259" s="0" t="s">
+        <v>844</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>846</v>
+      <c r="A260" s="7" t="s">
+        <v>847</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="G266" s="0" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -7723,33 +7876,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5681818181818"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.6818181818182"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7272727272727"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>860</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>861</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>862</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/実行時フォルダ/System/resources.xlsx
+++ b/実行時フォルダ/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="880">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -84,6 +84,86 @@
   </si>
   <si>
     <t xml:space="preserve">Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strTitleCaution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pay attention not to emit a noise to others,\n
+especially in the night.\n
+Do not wield a stick, the guitar and so on.\n
+It’s too dangerous.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">プレイする時は、なるべく夜中を避け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">周りの騒音に気をつけましょう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">また、スティックやギターを振り回すと大変危険です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ご注意ください。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">strTitleStart</t>
@@ -1466,7 +1546,7 @@
     <t xml:space="preserve">You can change whether Auto or not for all guitar neck/pick at once.</t>
   </si>
   <si>
-    <t xml:space="preserve">全ネック/ピックの自動演奏の ON/OFF をまとめて切り替えます。</t>
+    <t xml:space="preserve">ギターの自動演奏設定を一括で行います。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgGtAutoR</t>
@@ -1478,7 +1558,7 @@
     <t xml:space="preserve">To press R neck automatically.</t>
   </si>
   <si>
-    <t xml:space="preserve">Rネックを自動で押さえます。</t>
+    <t xml:space="preserve">ギターのRレーンを自動で押さえます。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgGtAutoG</t>
@@ -1490,19 +1570,19 @@
     <t xml:space="preserve">To press G neck automatically.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gネックを自動で押さえます。</t>
+    <t xml:space="preserve">ギターのGレーンを自動で押さえます。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgGtAutoB</t>
   </si>
   <si>
-    <t xml:space="preserve">       B</t>
+    <t xml:space="preserve">    B</t>
   </si>
   <si>
     <t xml:space="preserve">To press B neck automatically.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bネックを自動で押さえます。</t>
+    <t xml:space="preserve">ギターのBレーンを自動で押さえます。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgGtAutoPick</t>
@@ -1514,7 +1594,7 @@
     <t xml:space="preserve">To play Pick automatically.</t>
   </si>
   <si>
-    <t xml:space="preserve">ピックを自動で演奏します。</t>
+    <t xml:space="preserve">ギターのピックを自動で演奏します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgGtAutoWailing</t>
@@ -1526,13 +1606,13 @@
     <t xml:space="preserve">To play wailing automatically.</t>
   </si>
   <si>
-    <t xml:space="preserve">ウェイリングを自動で演奏します。</t>
+    <t xml:space="preserve">ギターのウェイリングを自動で演奏します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgBsAllAuto</t>
   </si>
   <si>
-    <t xml:space="preserve">Switch to play the bass automatically.</t>
+    <t xml:space="preserve">You can change whether Auto or not for all bass neck/pick at once.</t>
   </si>
   <si>
     <t xml:space="preserve">ベースの自動演奏設定を一括で行います。</t>
@@ -1541,46 +1621,31 @@
     <t xml:space="preserve">strCfgBsAutoR</t>
   </si>
   <si>
-    <t xml:space="preserve">Press the bass R lane automatically.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベースのRレーンを自動で演奏します。</t>
+    <t xml:space="preserve">ベースのRレーンを自動で押さえます。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgBsAutoG</t>
   </si>
   <si>
-    <t xml:space="preserve">Press the bass G lane automatically.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベースのGレーンを自動で抑えます。</t>
+    <t xml:space="preserve">ベースのGレーンを自動で押さえます。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgBsAutoB</t>
   </si>
   <si>
-    <t xml:space="preserve">Press the bass B lane automatically.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベースのBレーンを自動で抑えます。</t>
+    <t xml:space="preserve">ベースのBレーンを自動で押さえます。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgBsAutoPick</t>
   </si>
   <si>
-    <t xml:space="preserve">Pick the bass automatically.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベースを自動でピックします。</t>
+    <t xml:space="preserve">ベースのピックを自動で演奏します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgBsAutoWailing</t>
   </si>
   <si>
-    <t xml:space="preserve">Do the bass wailing automatically.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベースのウェイリングを自動で行います。</t>
+    <t xml:space="preserve">ベースのウェイリングを自動で演奏します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysSoundLoadLimiter</t>
@@ -4212,21 +4277,16 @@
     <t xml:space="preserve">Metronome settings:\n
 Off: No metronome sound.\n
 OnBeat: Playback metronome on beat.\n
-OffBeat: Playback metronome off beat.\n
-Triplet:  Playback metronome as triplet. (not implemented yet)</t>
+OffBeat: Playback metronome off beat.</t>
   </si>
   <si>
     <t xml:space="preserve">Off,OnBeat,OffBeat,Triplet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メトロノーム</t>
   </si>
   <si>
     <t xml:space="preserve">メトロノーム音の設定:\n
 Off: メトロノーム音を再生しません。\n
 OnBeat: 表拍でメトロノームを再生します。\n
-OffBeat: 裏拍でメトロノームを再生します。\n
-Triplet:  三連符でメトロノーム音を再生します。(未実装)</t>
+OffBeat: 裏拍でメトロノームを再生します。</t>
   </si>
   <si>
     <t xml:space="preserve">Off,表拍,裏拍,三連符</t>
@@ -4241,9 +4301,6 @@
     <t xml:space="preserve">Metronome volume at BAR line.</t>
   </si>
   <si>
-    <t xml:space="preserve">小節線音量</t>
-  </si>
-  <si>
     <t xml:space="preserve">小節線での音量を設定します。</t>
   </si>
   <si>
@@ -4254,9 +4311,6 @@
   </si>
   <si>
     <t xml:space="preserve">Metronome volume at BEAT line.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">拍線音量</t>
   </si>
   <si>
     <t xml:space="preserve">拍線での音量を設定します。</t>
@@ -4316,6 +4370,12 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9.5"/>
       <color rgb="FFA31515"/>
       <name val="MS Gothic"/>
@@ -4347,12 +4407,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FFA31515"/>
-      <name val="MS Gothic"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4414,14 +4468,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4430,7 +4476,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4438,12 +4492,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4523,23 +4577,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.7727272727273"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9318181818182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="128.380681818182"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3977272727273"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4034090909091"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="103.426136363636"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.3977272727273"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.5227272727273"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.2613636363636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.9545454545455"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="171.528409090909"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.7670454545455"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.9772727272727"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="138.306818181818"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.4318181818182"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.8011363636364"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6818181818182"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,62 +4673,62 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="F9" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
       <c r="F10" s="0" t="s">
         <v>33</v>
       </c>
@@ -4683,13 +4737,13 @@
       <c r="A11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
       <c r="F11" s="0" t="s">
         <v>37</v>
       </c>
@@ -4698,13 +4752,13 @@
       <c r="A12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="F12" s="0" t="s">
         <v>41</v>
       </c>
@@ -4713,13 +4767,13 @@
       <c r="A13" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="F13" s="0" t="s">
         <v>45</v>
       </c>
@@ -4728,13 +4782,13 @@
       <c r="A14" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
       <c r="F14" s="0" t="s">
         <v>49</v>
       </c>
@@ -4743,217 +4797,218 @@
       <c r="A15" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="5"/>
+      <c r="F15" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="6" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+    <row r="21" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>100</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="108.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>104</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="108.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4964,10 +5019,10 @@
       <c r="B30" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4978,10 +5033,10 @@
       <c r="B31" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4992,67 +5047,66 @@
       <c r="B32" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>124</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>128</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5060,55 +5114,56 @@
       <c r="A37" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>144</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>152</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5119,229 +5174,229 @@
       <c r="B41" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>160</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>164</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="F43" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="6" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B44" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>173</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="F45" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="6" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="B46" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>182</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>186</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F48" s="6" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="B49" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="C49" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+    <row r="50" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>195</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>203</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>207</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>211</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+    <row r="55" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="7" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5349,80 +5404,80 @@
       <c r="A57" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="4"/>
-      <c r="C59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="A59" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="A61" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>235</v>
-      </c>
+      <c r="A62" s="8"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5430,13 +5485,13 @@
       <c r="A64" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="0" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5444,13 +5499,13 @@
       <c r="A65" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="5" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5458,46 +5513,46 @@
       <c r="A66" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="B66" s="5" t="s">
         <v>249</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C68" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="C68" s="0" t="s">
         <v>255</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="5" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5505,13 +5560,13 @@
       <c r="A70" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="5" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5519,13 +5574,13 @@
       <c r="A71" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="5" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5533,13 +5588,13 @@
       <c r="A72" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="5" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5547,13 +5602,13 @@
       <c r="A73" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="5" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5561,58 +5616,58 @@
       <c r="A74" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B75" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C75" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F75" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="F77" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F77" s="6" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="B78" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="D78" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="7" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5620,58 +5675,58 @@
       <c r="A79" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="4"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="F79" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84" s="4" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="B80" s="0" t="s">
         <v>298</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="B85" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="B85" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="0" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5679,13 +5734,13 @@
       <c r="A86" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="0" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5693,13 +5748,13 @@
       <c r="A87" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="0" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5707,13 +5762,13 @@
       <c r="A88" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="0" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5721,53 +5776,53 @@
       <c r="A89" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="0" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C91" s="0" t="s">
+      <c r="B90" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="C90" s="5" t="s">
         <v>321</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C92" s="0" t="s">
         <v>323</v>
       </c>
+      <c r="B92" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="F92" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="B93" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>326</v>
+      <c r="C93" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>327</v>
@@ -5777,2079 +5832,2093 @@
       <c r="A94" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F94" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F95" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C96" s="0" t="s">
+      <c r="B97" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="F96" s="0" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="B99" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="C99" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F98" s="3" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="B102" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="C102" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="B103" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="C103" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D103" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="F103" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C105" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="D105" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="F105" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F104" s="6" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="B106" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="C106" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="D106" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="F106" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F105" s="6" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="B107" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="C107" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="F107" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F106" s="6" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="B108" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="C108" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="D108" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="F108" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="C110" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="D110" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F110" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F109" s="6" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="B112" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C112" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="F112" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F111" s="6" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="115" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="B115" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="C115" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="F115" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="B119" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="C119" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="D119" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="F119" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="C121" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="F121" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F120" s="4" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="B122" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="C122" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="F122" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F121" s="6" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="B123" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="C123" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="D123" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="F123" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="C125" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="D125" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="F125" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="F124" s="0" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="8" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="C126" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="B127" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="C127" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="F127" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="F126" s="0" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="B128" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="C128" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="D128" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="F128" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F130" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F129" s="6" t="s">
+    </row>
+    <row r="132" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="B132" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="C132" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="F132" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F131" s="3" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="B133" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="C133" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="F133" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F132" s="3" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="135" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="B135" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="C135" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="F134" s="3" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="B136" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="B135" s="0" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="C138" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="F138" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F137" s="6" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8" t="s">
+      <c r="B143" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="C143" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="F143" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="F142" s="4" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8" t="s">
+      <c r="B144" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="C144" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="F144" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="F143" s="4" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8" t="s">
+      <c r="B145" s="10" t="s">
         <v>466</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B169" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="C169" s="3" t="s">
+      <c r="F170" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="F169" s="3" t="s">
+    </row>
+    <row r="171" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="B171" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="C171" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="F171" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>572</v>
+        <v>565</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>576</v>
+        <v>569</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B177" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="C177" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="F177" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="F176" s="4" t="s">
+    </row>
+    <row r="178" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="B178" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="C178" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="F178" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="F182" s="0" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C184" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="F184" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="F183" s="0" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="F187" s="0" t="s">
-        <v>594</v>
-      </c>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>680</v>
+        <v>599</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>696</v>
+        <v>619</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B239" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="C239" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="F239" s="0" t="s">
         <v>777</v>
       </c>
-      <c r="F238" s="0" t="s">
+    </row>
+    <row r="240" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="239" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="B240" s="0" t="s">
         <v>779</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="C240" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="F240" s="7" t="s">
         <v>781</v>
-      </c>
-      <c r="F239" s="6" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="B250" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="C250" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="F250" s="3" t="s">
         <v>817</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="C255" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="F255" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="E256" s="0" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="B260" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="E260" s="0" t="s">
         <v>845</v>
       </c>
-      <c r="E259" s="0" t="s">
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="8" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="7" t="s">
+      <c r="B261" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="E261" s="0" t="s">
         <v>848</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="E261" s="0" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B265" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="E265" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="E264" s="0" t="s">
+    </row>
+    <row r="267" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="5" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="266" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="11" t="s">
+      <c r="B267" s="0" t="s">
         <v>862</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="C267" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="D267" s="0" t="s">
         <v>864</v>
       </c>
-      <c r="D266" s="0" t="s">
+      <c r="E267" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="F267" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="E266" s="0" t="s">
+      <c r="G267" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="F266" s="3" t="s">
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="G266" s="0" t="s">
+      <c r="B268" s="0" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="11" t="s">
+      <c r="C268" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="E268" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="F268" s="0" t="s">
         <v>870</v>
       </c>
-      <c r="C267" s="0" t="s">
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="E267" s="0" t="s">
+      <c r="B269" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="F267" s="0" t="s">
+      <c r="C269" s="0" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="11" t="s">
+      <c r="E269" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="F269" s="0" t="s">
         <v>874</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="C268" s="0" t="s">
-        <v>876</v>
-      </c>
-      <c r="E268" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="F268" s="0" t="s">
-        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -7876,32 +7945,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7272727272727"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.1534090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>

--- a/実行時フォルダ/System/resources.xlsx
+++ b/実行時フォルダ/System/resources.xlsx
@@ -726,9 +726,9 @@
     <t xml:space="preserve">BGAlpha</t>
   </si>
   <si>
-    <t xml:space="preserve">The transparent degree for playing screen and wallpaper.\n
+    <t xml:space="preserve">The opaque degree for playing screen and wallpaper.\n
 \n
-0=no transparent, 255=completely transparency.</t>
+0=no opacity, 255=full opacity.</t>
   </si>
   <si>
     <t xml:space="preserve">背景画像の透明割合：\n
@@ -4579,21 +4579,20 @@
   </sheetPr>
   <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.2613636363636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.9545454545455"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="171.528409090909"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.7670454545455"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.9772727272727"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="138.306818181818"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.4318181818182"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.8011363636364"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6818181818182"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.7784090909091"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.7670454545455"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.5284090909091"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6193181818182"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.4318181818182"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="152.284090909091"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.4488636363636"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.3068181818182"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,7 +5095,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>136</v>
       </c>
@@ -7945,8 +7944,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.1534090909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.8125"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.4772727272727"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/実行時フォルダ/System/resources.xlsx
+++ b/実行時フォルダ/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="881">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -726,14 +726,14 @@
     <t xml:space="preserve">BGAlpha</t>
   </si>
   <si>
-    <t xml:space="preserve">The opaque degree for playing screen and wallpaper.\n
+    <t xml:space="preserve">The degree of opacity for playing screen and wallpaper.\n
 \n
 0=no opacity, 255=full opacity.</t>
   </si>
   <si>
     <t xml:space="preserve">背景画像の透明割合：\n
 背景画像をDTXManiaのフレーム画像と合成する際の、背景画像の透明度を指定します。\n
-0 が完全不透明で、255 が完全透明となります。</t>
+0 が完全透明で、255 が完全不透明となります。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysBGM</t>
@@ -4329,6 +4329,9 @@
   </si>
   <si>
     <t xml:space="preserve">currently “items” does not work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csv file must be saved with UTF-16</t>
   </si>
 </sst>
 </file>
@@ -4579,20 +4582,21 @@
   </sheetPr>
   <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.7784090909091"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.7670454545455"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.5284090909091"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6193181818182"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.4318181818182"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="152.284090909091"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.4488636363636"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.3068181818182"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5738636363636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6988636363636"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.073863636364"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.8181818181818"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7897727272727"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="203.397727272727"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="88.5454545454546"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="65.6931818181818"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7936,16 +7940,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.8125"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="12.4772727272727"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.6477272727273"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7971,6 +7975,11 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>879</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>880</v>
       </c>
     </row>
   </sheetData>
